--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144347.7921562281</v>
+        <v>-88895.69391449603</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16601219.99236629</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484456</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8737672.162964279</v>
+        <v>8756286.447524605</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.70753363988452</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>163.293878347428</v>
+        <v>242.1106704724329</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>327.2879775827834</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>246.5900340855807</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>72.45760154812729</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,13 +1063,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420.0420750511355</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>245.440512489918</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>190.9208213480131</v>
       </c>
       <c r="Y10" t="n">
-        <v>145.0672460523196</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>119.3890521039398</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1430,7 +1430,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>125.9292772904111</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170487</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>274.1806321016753</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.714883257509</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>82.64119670415005</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>119.8016735830726</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655112</v>
+        <v>90.71510147894787</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>172.6623007436917</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>378.6152516832855</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>202.6170286610733</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2242,19 +2242,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>61.06386613909926</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888232</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>129.7139627068456</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225797</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>13.99728392830519</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2950,22 +2950,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>56.95997704284483</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.347805835136</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225762</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925401</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>161.4887027346014</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934476</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925402</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432407</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>26.24351759540885</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925402</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432407</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934501</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>26.24351759540829</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413114</v>
+        <v>421.6239533009273</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496636</v>
+        <v>433.3484266092795</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385526</v>
+        <v>431.1380654981685</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.0243759141563</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.1761338157529</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>396.9712315838373</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724686</v>
+        <v>285.8262315320845</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925367</v>
+        <v>82.40273359886993</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.4539333765603</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.2174581770219</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.5781590863803</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043297</v>
+        <v>400.3942785639456</v>
       </c>
       <c r="X44" t="n">
-        <v>398.7153284477351</v>
+        <v>414.538417307351</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245958</v>
+        <v>403.7906409842117</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.4878110526658</v>
       </c>
       <c r="C46" t="n">
-        <v>154.60038406286</v>
+        <v>170.4234729224759</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>163.8065913913611</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730228</v>
+        <v>167.6478022326387</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.5273620187299</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856833</v>
+        <v>163.5227407452992</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432407</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934501</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.413244676236</v>
+        <v>26.24351759540795</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.0080304781978</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006784</v>
+        <v>275.2360492602943</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>283.6733315691424</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>268.89351889044</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.5252156407902</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402855</v>
+        <v>224.7328524999014</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>888.1040799405456</v>
+        <v>977.3001779341421</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>943.1981091579694</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>507.2883243324139</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>477.5539835311131</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032084</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032084</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.68655394032084</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.5244520203788</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1094.237788542707</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139063</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139063</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139063</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1138.122041139063</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1747.83537766139</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2294.334163619985</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.642234797401</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.419932114418</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1827.802982048245</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1422.947527459278</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1003.805064038588</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>999.5593443786458</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.4415095587536</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.9850483953959</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.8947595419492</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.7743448689029</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.3905064850645</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>91.00541675124838</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.33343772791845</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.8917626941308</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1009.605099216459</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.597809319854</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.33674795193</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.50952604627</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1649.054088494653</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.875444825254</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.538897825223</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.421379887222</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>958.098625620416</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.231189859296</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.7454106385168</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>988.4257508697167</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>815.8640393529416</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>649.9860465544643</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>480.2280428052017</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>303.5209887669579</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>137.9297137927855</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.9297137927855</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.26976456746085</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>208.1667582060678</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>626.3766399740289</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>1085.860507154942</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1528.119310312586</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1947.788559538368</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2295.29545350871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2463.488228373042</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.608781951497</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.175781204603</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1652.220273075033</v>
       </c>
       <c r="W4" t="n">
-        <v>1532.240118618369</v>
+        <v>1407.664040274596</v>
       </c>
       <c r="X4" t="n">
-        <v>1532.240118618369</v>
+        <v>1407.664040274596</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>1180.244369588704</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013.629614209975</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.629614209975</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1013.629614209975</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1013.629614209975</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.2683911281804</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>133.1663223520077</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2969415668563</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>71.56260076555554</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>47.73557521516734</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>47.73557521516734</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516734</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516734</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>482.9902626680852</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1073.718005955781</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1080.39816675902</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1080.39816675902</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1080.39816675902</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1080.39816675902</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046715</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.62469600531</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758367</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.126886942204</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2083.059659815242</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1823.837357132259</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="V8" t="n">
-        <v>1823.837357132259</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>1418.981902543293</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>999.8394391226033</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>591.5533154222567</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.9073202064601</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431024</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896557</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166094</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.856317132771</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895487</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516734</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.79924837562493</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>398.3575733418373</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>989.0853166295331</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599637</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534929</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681226</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070025</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862232</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>784.4740205610109</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>784.4740205610109</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>618.5960277625336</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5960277625336</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>441.8889737242898</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>276.2976987501175</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>136.395524440492</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516734</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>47.73557521516734</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>299.6500654557252</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>717.8599472236862</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1177.343814404599</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1619.602617562244</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2039.271866788025</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2386.778760758367</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758367</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2365.360939463739</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2206.119570761735</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1960.240124340191</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1681.807123593296</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1394.851615463726</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1122.825211050018</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1122.825211050018</v>
+        <v>1213.257962230137</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.292639279998</v>
+        <v>985.8382915442448</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2352.43423441288</v>
+        <v>2523.23363613349</v>
       </c>
       <c r="C11" t="n">
-        <v>1914.291761596303</v>
+        <v>2085.091163316913</v>
       </c>
       <c r="D11" t="n">
-        <v>1478.381976770748</v>
+        <v>1649.181378491358</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.607231929043</v>
+        <v>1215.406633649653</v>
       </c>
       <c r="F11" t="n">
-        <v>616.7398023382507</v>
+        <v>787.5392040588608</v>
       </c>
       <c r="G11" t="n">
-        <v>215.3419709615146</v>
+        <v>386.1413726821247</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632221</v>
+        <v>97.01121812534097</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346222</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="J11" t="n">
-        <v>282.9563228467193</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="K11" t="n">
-        <v>1117.306614804897</v>
+        <v>491.7029861538851</v>
       </c>
       <c r="L11" t="n">
-        <v>2192.366581057757</v>
+        <v>1566.762952406744</v>
       </c>
       <c r="M11" t="n">
-        <v>2192.366581057757</v>
+        <v>2723.810787617295</v>
       </c>
       <c r="N11" t="n">
-        <v>2192.366581057757</v>
+        <v>3849.541771053742</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628063</v>
+        <v>4829.721437624049</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.856122461459</v>
+        <v>4829.721437624049</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420054</v>
+        <v>4829.721437624049</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.50897317311</v>
+        <v>4829.721437624049</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356947</v>
+        <v>4746.069563807886</v>
       </c>
       <c r="T11" t="n">
-        <v>4632.857099356947</v>
+        <v>4526.002336680925</v>
       </c>
       <c r="U11" t="n">
-        <v>4373.634796673964</v>
+        <v>4266.780033997941</v>
       </c>
       <c r="V11" t="n">
-        <v>4011.01784660779</v>
+        <v>3904.163083931768</v>
       </c>
       <c r="W11" t="n">
-        <v>3606.162392018824</v>
+        <v>3776.961793739434</v>
       </c>
       <c r="X11" t="n">
-        <v>3187.019928598134</v>
+        <v>3357.819330318745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2778.733804897788</v>
+        <v>2949.533206618398</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>602.7661737437737</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>496.309712580416</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>401.2194237269693</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>307.099009053923</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>223.7151706700846</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>138.3300809362685</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346222</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="I12" t="n">
-        <v>120.3938526239198</v>
+        <v>122.6581019129386</v>
       </c>
       <c r="J12" t="n">
-        <v>444.9521775901321</v>
+        <v>447.2164268791509</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="M12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="N12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="O12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.922473504874</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.66141213695</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.83419023129</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.378752679673</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.200109010274</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.863562010243</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.746044072242</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.423289805436</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>850.5558540443161</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>724.0700748235369</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8240168810745</v>
+        <v>947.0904658294123</v>
       </c>
       <c r="C13" t="n">
-        <v>631.2623053642994</v>
+        <v>774.5287543126373</v>
       </c>
       <c r="D13" t="n">
-        <v>465.3843125658221</v>
+        <v>608.65076151416</v>
       </c>
       <c r="E13" t="n">
-        <v>295.6263088165594</v>
+        <v>438.8927577648972</v>
       </c>
       <c r="F13" t="n">
-        <v>118.9192547783156</v>
+        <v>262.1857037266533</v>
       </c>
       <c r="G13" t="n">
-        <v>94.33017946346222</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346222</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346222</v>
+        <v>96.59442875248098</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>183.1741139171708</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>457.9325684883065</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>876.1424502562675</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.62631743718</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.885120594825</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531587</v>
+        <v>2197.554369820607</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.797014501929</v>
+        <v>2545.061263790948</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.254038655281</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.748420664258</v>
+        <v>2554.012669953277</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.868974242714</v>
+        <v>2308.133223531732</v>
       </c>
       <c r="U13" t="n">
-        <v>2027.435973495819</v>
+        <v>2029.700222784837</v>
       </c>
       <c r="V13" t="n">
-        <v>1740.480465366249</v>
+        <v>1883.746914314587</v>
       </c>
       <c r="W13" t="n">
-        <v>1468.454060952541</v>
+        <v>1611.720509900879</v>
       </c>
       <c r="X13" t="n">
-        <v>1223.062306285953</v>
+        <v>1366.328755234291</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.6426356000616</v>
+        <v>1138.9090845484</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.552597471611</v>
+        <v>2511.181203596271</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.410124655034</v>
+        <v>2073.038730779694</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.500339829479</v>
+        <v>1637.128945954139</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.725594987774</v>
+        <v>1203.354201112434</v>
       </c>
       <c r="F14" t="n">
-        <v>784.858165396982</v>
+        <v>775.4867715216415</v>
       </c>
       <c r="G14" t="n">
-        <v>383.460334020246</v>
+        <v>374.0889401449049</v>
       </c>
       <c r="H14" t="n">
-        <v>94.33017946346222</v>
+        <v>97.13880670886957</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="J14" t="n">
-        <v>282.9563228467193</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K14" t="n">
-        <v>1117.306614804897</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L14" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M14" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628063</v>
+        <v>3421.566629570271</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.856122461459</v>
+        <v>4249.876504403667</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420054</v>
+        <v>4796.375290362263</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.50897317311</v>
+        <v>4836.100866800479</v>
       </c>
       <c r="S14" t="n">
-        <v>4716.50897317311</v>
+        <v>4752.448992984316</v>
       </c>
       <c r="T14" t="n">
-        <v>4496.441746046149</v>
+        <v>4532.381765857354</v>
       </c>
       <c r="U14" t="n">
-        <v>4237.219443363166</v>
+        <v>4532.381765857354</v>
       </c>
       <c r="V14" t="n">
-        <v>3874.602493296992</v>
+        <v>4169.764815791181</v>
       </c>
       <c r="W14" t="n">
-        <v>3469.747038708026</v>
+        <v>3764.909361202214</v>
       </c>
       <c r="X14" t="n">
-        <v>3050.604575287337</v>
+        <v>3345.766897781525</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.852167956519</v>
+        <v>2937.480774081178</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="I15" t="n">
-        <v>120.3938526239198</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J15" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>995.642635600062</v>
+        <v>1087.120228722566</v>
       </c>
       <c r="C16" t="n">
-        <v>912.1666793332439</v>
+        <v>914.5585172057912</v>
       </c>
       <c r="D16" t="n">
-        <v>746.2886865347666</v>
+        <v>748.6805244073139</v>
       </c>
       <c r="E16" t="n">
-        <v>576.5306827855038</v>
+        <v>578.9225206580512</v>
       </c>
       <c r="F16" t="n">
-        <v>399.82362874726</v>
+        <v>402.2154666198074</v>
       </c>
       <c r="G16" t="n">
-        <v>234.2323537730877</v>
+        <v>236.6241916456351</v>
       </c>
       <c r="H16" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="I16" t="n">
-        <v>94.3301794634629</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281527</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992884</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672494</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305807</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S16" t="n">
-        <v>2551.748420664259</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="T16" t="n">
-        <v>2305.868974242714</v>
+        <v>2467.502180817264</v>
       </c>
       <c r="U16" t="n">
-        <v>2027.435973495819</v>
+        <v>2189.069180070369</v>
       </c>
       <c r="V16" t="n">
-        <v>1740.48046536625</v>
+        <v>1902.1136719408</v>
       </c>
       <c r="W16" t="n">
-        <v>1468.454060952541</v>
+        <v>1630.087267527091</v>
       </c>
       <c r="X16" t="n">
-        <v>1223.062306285954</v>
+        <v>1506.358518127445</v>
       </c>
       <c r="Y16" t="n">
-        <v>995.642635600062</v>
+        <v>1278.938847441553</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2352.434234412881</v>
+        <v>2522.944435344159</v>
       </c>
       <c r="C17" t="n">
-        <v>1914.291761596304</v>
+        <v>2084.801962527582</v>
       </c>
       <c r="D17" t="n">
-        <v>1478.381976770749</v>
+        <v>1648.892177702026</v>
       </c>
       <c r="E17" t="n">
-        <v>1044.607231929044</v>
+        <v>1215.117432860322</v>
       </c>
       <c r="F17" t="n">
-        <v>616.7398023382516</v>
+        <v>787.2500032695294</v>
       </c>
       <c r="G17" t="n">
-        <v>215.3419709615154</v>
+        <v>385.8521718927933</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J17" t="n">
-        <v>282.9563228467193</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K17" t="n">
-        <v>1117.306614804897</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L17" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M17" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="N17" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="O17" t="n">
-        <v>3172.546247628063</v>
+        <v>3421.566629570271</v>
       </c>
       <c r="P17" t="n">
-        <v>4000.856122461459</v>
+        <v>4249.876504403667</v>
       </c>
       <c r="Q17" t="n">
-        <v>4547.354908420054</v>
+        <v>4796.375290362263</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.50897317311</v>
+        <v>4836.100866800478</v>
       </c>
       <c r="S17" t="n">
-        <v>4632.857099356947</v>
+        <v>4752.448992984315</v>
       </c>
       <c r="T17" t="n">
-        <v>4632.857099356947</v>
+        <v>4532.381765857353</v>
       </c>
       <c r="U17" t="n">
-        <v>4373.634796673964</v>
+        <v>4273.15946317437</v>
       </c>
       <c r="V17" t="n">
-        <v>4011.017846607791</v>
+        <v>4181.528047539069</v>
       </c>
       <c r="W17" t="n">
-        <v>3606.162392018824</v>
+        <v>3776.672592950103</v>
       </c>
       <c r="X17" t="n">
-        <v>3187.019928598135</v>
+        <v>3357.530129529413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2778.733804897788</v>
+        <v>2949.244005829067</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="I18" t="n">
-        <v>120.3938526239198</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="L18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="M18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="N18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="O18" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.388340075344</v>
+        <v>965.4572234556251</v>
       </c>
       <c r="C19" t="n">
-        <v>1000.826628558569</v>
+        <v>792.8955119388501</v>
       </c>
       <c r="D19" t="n">
-        <v>834.9486357600913</v>
+        <v>627.0175191403728</v>
       </c>
       <c r="E19" t="n">
-        <v>665.1906320108285</v>
+        <v>457.25951539111</v>
       </c>
       <c r="F19" t="n">
-        <v>488.4835779725847</v>
+        <v>280.5524613528661</v>
       </c>
       <c r="G19" t="n">
-        <v>322.8923029984123</v>
+        <v>114.9611863786938</v>
       </c>
       <c r="H19" t="n">
-        <v>182.9901286887869</v>
+        <v>114.9611863786938</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600956</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531587</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.797014501929</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R19" t="n">
-        <v>2689.571968071634</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S19" t="n">
-        <v>2530.33059936963</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="T19" t="n">
-        <v>2284.451152948086</v>
+        <v>2467.502180817265</v>
       </c>
       <c r="U19" t="n">
-        <v>2284.451152948086</v>
+        <v>2189.06918007037</v>
       </c>
       <c r="V19" t="n">
-        <v>2110.044788560519</v>
+        <v>1902.1136719408</v>
       </c>
       <c r="W19" t="n">
-        <v>1838.01838414681</v>
+        <v>1630.087267527092</v>
       </c>
       <c r="X19" t="n">
-        <v>1592.626629480223</v>
+        <v>1384.695512860504</v>
       </c>
       <c r="Y19" t="n">
-        <v>1365.206958794331</v>
+        <v>1157.275842174612</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2231.422442914828</v>
+        <v>2472.026128040249</v>
       </c>
       <c r="C20" t="n">
-        <v>1793.279970098251</v>
+        <v>2033.883655223673</v>
       </c>
       <c r="D20" t="n">
-        <v>1357.370185272695</v>
+        <v>1597.973870398117</v>
       </c>
       <c r="E20" t="n">
-        <v>923.5954404309906</v>
+        <v>1215.534222233182</v>
       </c>
       <c r="F20" t="n">
-        <v>495.7280108401984</v>
+        <v>787.6667926423897</v>
       </c>
       <c r="G20" t="n">
-        <v>94.33017946346222</v>
+        <v>386.2689612656536</v>
       </c>
       <c r="H20" t="n">
-        <v>94.33017946346222</v>
+        <v>97.13880670886957</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346222</v>
+        <v>531.9767047889275</v>
       </c>
       <c r="K20" t="n">
-        <v>928.6804714216402</v>
+        <v>1366.326996747106</v>
       </c>
       <c r="L20" t="n">
-        <v>2003.740437674499</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="M20" t="n">
-        <v>2003.740437674499</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="N20" t="n">
-        <v>2192.366581057757</v>
+        <v>2441.386962999965</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.546247628063</v>
+        <v>3421.566629570271</v>
       </c>
       <c r="P20" t="n">
-        <v>4000.856122461459</v>
+        <v>4249.876504403667</v>
       </c>
       <c r="Q20" t="n">
-        <v>4547.354908420054</v>
+        <v>4796.375290362263</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.50897317311</v>
+        <v>4836.100866800479</v>
       </c>
       <c r="S20" t="n">
-        <v>4716.50897317311</v>
+        <v>4752.448992984317</v>
       </c>
       <c r="T20" t="n">
-        <v>4511.845307858895</v>
+        <v>4752.448992984317</v>
       </c>
       <c r="U20" t="n">
-        <v>4252.623005175912</v>
+        <v>4493.226690301333</v>
       </c>
       <c r="V20" t="n">
-        <v>3890.006055109739</v>
+        <v>4130.60974023516</v>
       </c>
       <c r="W20" t="n">
-        <v>3485.150600520772</v>
+        <v>3725.754285646193</v>
       </c>
       <c r="X20" t="n">
-        <v>3066.008137100082</v>
+        <v>3306.611822225504</v>
       </c>
       <c r="Y20" t="n">
-        <v>2657.722013399735</v>
+        <v>2898.325698525157</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.8937623273024</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>496.4373011639447</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>401.3470123104979</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>307.2265976374516</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.8427592536132</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.4576695197971</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="I21" t="n">
-        <v>120.3938526239198</v>
+        <v>122.7856904964672</v>
       </c>
       <c r="J21" t="n">
-        <v>444.9521775901321</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="K21" t="n">
-        <v>1099.658224215856</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.658224215856</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="M21" t="n">
-        <v>1099.658224215856</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="N21" t="n">
-        <v>1099.658224215856</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="O21" t="n">
-        <v>1099.658224215856</v>
+        <v>447.3440154626795</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1102.050062088403</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.789000720479</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.961778814818</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.506341263201</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1566.327697593803</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.991150593771</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.873632655771</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.550878388965</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.6834426278448</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>724.1976634070655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8240168810748</v>
+        <v>947.2180544129408</v>
       </c>
       <c r="C22" t="n">
-        <v>631.2623053642999</v>
+        <v>774.6563428961657</v>
       </c>
       <c r="D22" t="n">
-        <v>631.2623053642999</v>
+        <v>608.7783500976884</v>
       </c>
       <c r="E22" t="n">
-        <v>461.5043016150371</v>
+        <v>439.0203463484257</v>
       </c>
       <c r="F22" t="n">
-        <v>399.82362874726</v>
+        <v>262.3132923101819</v>
       </c>
       <c r="G22" t="n">
-        <v>234.2323537730877</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346222</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="I22" t="n">
-        <v>94.3301794634629</v>
+        <v>96.72201733600957</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281527</v>
+        <v>183.3017025006994</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992884</v>
+        <v>458.060157071835</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672494</v>
+        <v>876.270038839796</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.753906020709</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305807</v>
+        <v>1778.012709178354</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.681958404135</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2545.188852374477</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2713.381627238809</v>
       </c>
       <c r="S22" t="n">
-        <v>2551.748420664259</v>
+        <v>2695.142458196125</v>
       </c>
       <c r="T22" t="n">
-        <v>2305.868974242714</v>
+        <v>2449.26301177458</v>
       </c>
       <c r="U22" t="n">
-        <v>2027.435973495819</v>
+        <v>2170.830011027685</v>
       </c>
       <c r="V22" t="n">
-        <v>1740.48046536625</v>
+        <v>1883.874502898116</v>
       </c>
       <c r="W22" t="n">
-        <v>1468.454060952541</v>
+        <v>1611.848098484407</v>
       </c>
       <c r="X22" t="n">
-        <v>1223.062306285954</v>
+        <v>1366.45634381782</v>
       </c>
       <c r="Y22" t="n">
-        <v>995.642635600062</v>
+        <v>1139.036673131928</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883926</v>
       </c>
       <c r="C25" t="n">
         <v>780.1951658309357</v>
@@ -6178,19 +6178,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903958</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736207</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751434</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258808</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876369</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134645</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752035</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005141</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.652494875571</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461863</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795275</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109383</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C31" t="n">
-        <v>811.7546776883914</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6652,16 +6652,16 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
         <v>1003.573296407379</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
         <v>444.5591692831957</v>
@@ -6883,16 +6883,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197254</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397567</v>
+        <v>1090.187678435287</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936677</v>
+        <v>917.6259669185116</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080666</v>
+        <v>751.7479741200343</v>
       </c>
       <c r="E37" t="n">
-        <v>602.82832657168</v>
+        <v>581.9899703707715</v>
       </c>
       <c r="F37" t="n">
-        <v>442.520979946312</v>
+        <v>405.2829163325277</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850158</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290618</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281949</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231237</v>
+        <v>2026.844126920462</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230405</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1509.425967840166</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703678</v>
+        <v>1282.006297154274</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206712</v>
+        <v>2525.85493345824</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803011</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390332</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961503</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835866</v>
+        <v>791.8276588750512</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197265</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581887</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M38" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3359.607048897774</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2951.737714570288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>950.5453418998824</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936677</v>
+        <v>778.4004197559672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>612.9392163303498</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823632</v>
+        <v>464.288381951757</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>882.9067589840583</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341418</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.4595535761</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704772</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2695.552220073046</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1613.925017852769</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.854933458241</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014524</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561829</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092984</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711748</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2582.520192247198</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3562.699858817504</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4391.009733650901</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4937.508519609495</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362552</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165147</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855024</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4182.77138816171</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945604</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897775</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570289</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998821</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936668</v>
+        <v>778.4004197559671</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080656</v>
+        <v>612.9392163303498</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>443.5980019539471</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463114</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K43" t="n">
-        <v>491.051549882363</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856839</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073046</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650326</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852768</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2525.854933458239</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2088.129250014523</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1652.636254561828</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1219.278299092983</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835856</v>
+        <v>791.8276588750508</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>390.8466168711747</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.3879391401689</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.738231098347</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>2446.798197351206</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2582.520192247197</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3562.699858817503</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4391.0097336509</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4937.508519609494</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>5106.662584362551</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>5023.427499919248</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4803.777062165146</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4544.971548855023</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4182.771388161709</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3778.332722945603</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3359.607048897773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2951.737714570287</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.3049966785438</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.8485355151861</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.7582466617393</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.6378319886931</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.2539936048547</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.8689038710386</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>128.1969248477086</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.755249813921</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.461296439645</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.20023507172</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.37301316606</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1701.917575614443</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.738931945045</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.402384945013</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.284867007012</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1010.962112740206</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.0946769790862</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.608897758307</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>950.5453418998825</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>778.4004197559675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080659</v>
+        <v>612.9392163303503</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716793</v>
+        <v>443.5980019539475</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463116</v>
+        <v>267.3077372885633</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850153</v>
+        <v>102.133251687251</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>102.133251687251</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>102.133251687251</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>189.121432116281</v>
       </c>
       <c r="K46" t="n">
-        <v>491.051549882363</v>
+        <v>464.2883819517567</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856839</v>
+        <v>882.9067589840579</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1342.799121429311</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1785.466419851296</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2205.544164341417</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2553.459553576099</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2722.060823704771</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2695.552220073046</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2450.089563024361</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2172.073351650327</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1885.534632893617</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1613.925017852769</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1368.950052559041</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1141.947171246009</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.32752787510685</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>45.44718192262189</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>160.5020137763707</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895917</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.74763717498854</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895917</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895917</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>254.4590810510685</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.531457962886</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>399.0995529307113</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.531457962886</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.12684488708692</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.531457962886</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>40.12684488708601</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>190.531457962886</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>40.12684488708692</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10829,7 +10829,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,13 +11066,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>137.0929241373656</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,10 +11300,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>166.8498009072761</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>274.8776227526659</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>12.05822090954058</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.4883792058341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>88.19489769745726</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>166.4371794281433</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>268.2756790865639</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.71657238081401</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>111.4236523045821</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>50.82174571000229</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>15.24952619461846</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8761173587621</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142713</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866781</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2592358276477</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2.446659489829251</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>130.992815940443</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>130.9928159404436</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.0905310873978</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.36072825393998</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>20.7910216025504</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.9928159404439</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770142.0774391834</v>
+        <v>772106.7590947655</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770142.0774391834</v>
+        <v>772636.3778507168</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>771910.0884172912</v>
+        <v>772636.3778507168</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719791.4243055653</v>
+        <v>732473.4489102898</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719791.4243055654</v>
+        <v>733188.0705570488</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719791.4243055655</v>
+        <v>733188.0705570485</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719791.4243055654</v>
+        <v>733188.0705570488</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776986.455276699</v>
+        <v>764210.930575437</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776986.455276699</v>
+        <v>764534.7968790072</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776986.455276699</v>
+        <v>764534.7968790072</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776986.455276699</v>
+        <v>764534.7968790072</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174247.8789643826</v>
+        <v>174247.8789643827</v>
       </c>
       <c r="C2" t="n">
         <v>174247.8789643827</v>
@@ -26320,40 +26320,40 @@
         <v>174247.8789643827</v>
       </c>
       <c r="E2" t="n">
-        <v>161276.1027210515</v>
+        <v>164117.630744028</v>
       </c>
       <c r="F2" t="n">
-        <v>161276.1027210515</v>
+        <v>164277.7485090049</v>
       </c>
       <c r="G2" t="n">
-        <v>161276.1027210515</v>
+        <v>164277.748509005</v>
       </c>
       <c r="H2" t="n">
-        <v>161276.1027210515</v>
+        <v>164277.748509005</v>
       </c>
       <c r="I2" t="n">
-        <v>171228.7148446394</v>
+        <v>171228.7148446395</v>
       </c>
       <c r="J2" t="n">
         <v>171228.7148446394</v>
       </c>
       <c r="K2" t="n">
-        <v>171228.7148446395</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="L2" t="n">
         <v>171228.7148446394</v>
       </c>
       <c r="M2" t="n">
-        <v>174247.8789643828</v>
+        <v>171228.7148446394</v>
       </c>
       <c r="N2" t="n">
-        <v>174247.8789643827</v>
+        <v>171305.4452086849</v>
       </c>
       <c r="O2" t="n">
-        <v>174247.8789643825</v>
+        <v>171305.4452086848</v>
       </c>
       <c r="P2" t="n">
-        <v>174247.8789643827</v>
+        <v>171305.4452086848</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>206392.8913892648</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16684.38774088123</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212286</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405923</v>
+        <v>161206.7864921676</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>456.9680810514288</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678319</v>
+        <v>18411.11667046233</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>161139.2285061091</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13291.29410427265</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915323</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345132</v>
+        <v>134549.0157379115</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>330.0971833051449</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133420.393280836</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
-        <v>137612.6947546384</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13417.20773267364</v>
+        <v>13653.60587920147</v>
       </c>
       <c r="F4" t="n">
-        <v>13417.20773267364</v>
+        <v>13666.9267201577</v>
       </c>
       <c r="G4" t="n">
-        <v>13417.20773267366</v>
+        <v>13666.92672015769</v>
       </c>
       <c r="H4" t="n">
-        <v>13417.20773267364</v>
+        <v>13666.9267201577</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>29443.15222066923</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066916</v>
+        <v>14648.85760080243</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.1522206692</v>
+        <v>14648.85760080243</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.1522206692</v>
+        <v>14648.85760080242</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>71072.62107127023</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352716</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223128</v>
+        <v>73411.76585188555</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223128</v>
+        <v>73508.73317536728</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223128</v>
+        <v>73508.73317536726</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223128</v>
+        <v>73508.73317536728</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743989</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>77655.95995743987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202668.4496976607</v>
+        <v>-236638.0267769883</v>
       </c>
       <c r="C6" t="n">
-        <v>-60477.14903795058</v>
+        <v>-38779.88656339145</v>
       </c>
       <c r="D6" t="n">
-        <v>-86823.70234590568</v>
+        <v>-22095.49882251023</v>
       </c>
       <c r="E6" t="n">
-        <v>-97733.58824444574</v>
+        <v>-84232.45246553703</v>
       </c>
       <c r="F6" t="n">
-        <v>76167.95859614664</v>
+        <v>76568.4272212333</v>
       </c>
       <c r="G6" t="n">
-        <v>76167.95859614658</v>
+        <v>77025.39530228483</v>
       </c>
       <c r="H6" t="n">
-        <v>76167.95859614661</v>
+        <v>77025.39530228479</v>
       </c>
       <c r="I6" t="n">
-        <v>52903.6550115711</v>
+        <v>60830.92965850935</v>
       </c>
       <c r="J6" t="n">
-        <v>-31749.1946766359</v>
+        <v>-81897.18217713742</v>
       </c>
       <c r="K6" t="n">
-        <v>79265.27066835432</v>
+        <v>65950.75222469901</v>
       </c>
       <c r="L6" t="n">
-        <v>35632.67770920105</v>
+        <v>79242.04632897166</v>
       </c>
       <c r="M6" t="n">
-        <v>-74221.50801688936</v>
+        <v>-55306.96940893984</v>
       </c>
       <c r="N6" t="n">
-        <v>69289.11201762379</v>
+        <v>78647.89636132432</v>
       </c>
       <c r="O6" t="n">
-        <v>69289.11201762359</v>
+        <v>78977.99354462944</v>
       </c>
       <c r="P6" t="n">
-        <v>69289.11201762376</v>
+        <v>78977.99354462945</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895917</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1207.430359406012</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.02521670012</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.025216700119</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1209.02521670012</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1276.665646090638</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="D4" t="n">
-        <v>172.3988326694874</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036859</v>
+        <v>539.9151527981553</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.594857294107442</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146772</v>
+        <v>69.23528668462563</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694874</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666638</v>
+        <v>539.9151527981551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>51.64314951459642</v>
       </c>
       <c r="L4" t="n">
-        <v>172.3988326694874</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036859</v>
+        <v>539.9151527981553</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.594857294107442</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>204.1590212158072</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>106.0122620221433</v>
+        <v>27.19546989713845</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>182.8469633077071</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,19 +27670,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98.37849285348003</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.994499728923188</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.18956716623529</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>52.01701577190855</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.07822792671323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874736</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791303987</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874734</v>
+        <v>0.4126214791314311</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.32752787510685</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>615.8720570932605</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>45.44718192262189</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>160.5020137763707</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>35.25505765581499</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>596.6946901895917</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6.74763717498854</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>596.6946901895917</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>596.6946901895917</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>64.62454882629083</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>254.4590810510685</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.531457962886</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>399.0995529307113</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.531457962886</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>40.12684488708692</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.531457962886</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>40.12684488708601</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36054,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>190.531457962886</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>40.12684488708692</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36525,10 +36525,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37306,7 +37306,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>81.9345526149732</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>277.9464139752283</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.846845487173</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343477</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>137.0929241373656</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228357</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.8668489182121</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467888</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>137.0929241373647</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.86684891821211</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.946413975228</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467888</v>
+        <v>422.8468454871729</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>464.53773984369</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>447.1386852747321</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>424.3209540304258</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.4296860956383</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>170.3043132612852</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
